--- a/homo_comuna.xlsx
+++ b/homo_comuna.xlsx
@@ -8,22 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SFVP\Analitica_UN\01_Ciencia de los Datos Aplicada\R\UN_Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCD7C6D-E6C3-477E-8B50-CA302586693E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77605E05-EB48-4911-9F1A-EFB5AD9D1810}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="homo_comuna" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="homo_comuna" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">homo_comuna!$A$1:$E$86</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId2"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="102">
   <si>
     <t>COMUNA_ORI</t>
   </si>
@@ -325,17 +330,21 @@
     <t>Suma de FREQ</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Etiquetas de columna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,13 +507,6 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -821,7 +823,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -865,8 +867,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -882,23 +885,22 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="23" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment indent="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment indent="1"/>
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="43" pivotButton="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="33" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -932,6 +934,7 @@
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Millares" xfId="43" builtinId="3"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -943,23 +946,85 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
+  <dxfs count="82">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
       </font>
     </dxf>
     <dxf>
@@ -970,12 +1035,272 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <sz val="10"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -1016,7 +1341,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="43753.775849305559" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="85" xr:uid="{00000000-000A-0000-FFFF-FFFF15000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="43757.612513657405" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="85" xr:uid="{F16D703C-259F-4586-B0F1-7C5B11CFE075}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E86" sheet="homo_comuna"/>
   </cacheSource>
@@ -1072,7 +1397,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="85">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="85">
   <r>
     <m/>
     <n v="489"/>
@@ -1672,13 +1997,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="TablaDinámica2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="O1:R25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{72435675-0313-4890-A558-7FCC62F50A21}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="P1:S25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="23">
         <item x="5"/>
         <item x="1"/>
@@ -1692,16 +2017,16 @@
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
+        <item x="0"/>
         <item x="16"/>
         <item x="17"/>
         <item x="6"/>
-        <item n=" " x="7"/>
+        <item x="7"/>
         <item x="18"/>
         <item x="21"/>
         <item x="19"/>
         <item x="8"/>
         <item x="20"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -1717,7 +2042,7 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
-    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
@@ -1748,7 +2073,7 @@
       <x v="2"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="14"/>
     </i>
     <i>
       <x v="1"/>
@@ -1766,34 +2091,34 @@
       <x v="5"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="21"/>
     </i>
     <i>
-      <x v="16"/>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="19"/>
     </i>
     <i>
       <x v="12"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="20"/>
     </i>
     <i>
-      <x v="21"/>
+      <x/>
+    </i>
+    <i>
+      <x v="18"/>
     </i>
     <i>
       <x v="15"/>
     </i>
     <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="17"/>
+      <x v="16"/>
     </i>
     <i t="grand">
       <x/>
@@ -1816,68 +2141,90 @@
   <dataFields count="1">
     <dataField name="Suma de FREQ" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <formats count="12">
-    <format dxfId="11">
+  <formats count="18">
+    <format dxfId="53">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="52">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="51">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="48">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    <format dxfId="45">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
     </format>
-    <format dxfId="5">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    <format dxfId="44">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="43">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
-            <x v="21"/>
+            <x v="12"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+    <format dxfId="42">
+      <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
-            <x v="21"/>
+            <x v="12"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+    <format dxfId="41">
+      <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
-            <x v="21"/>
+            <x v="12"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="3" count="0"/>
+          <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
-      <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -1890,6 +2237,34 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EC01226-1A11-4A5B-997E-CEDBCB4F6CD1}" name="Tabla1" displayName="Tabla1" ref="A1:E2" totalsRowShown="0">
+  <autoFilter ref="A1:E2" xr:uid="{07EE4789-29AE-4AAD-839B-BF1902D9AC0E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6784F33A-3D19-4377-96F3-4B273AAB1293}" name="COMUNA_ORI"/>
+    <tableColumn id="2" xr3:uid="{62654782-6341-4AE5-9998-49B750CCA8C4}" name="FREQ"/>
+    <tableColumn id="3" xr3:uid="{6893A249-B159-4C95-B2A7-623F2F3D53CA}" name="COMUNA_ID"/>
+    <tableColumn id="4" xr3:uid="{B857946A-484B-42C9-B2D0-B7AF51ED2953}" name="COMUNA_STD"/>
+    <tableColumn id="5" xr3:uid="{C3EE7A51-BB39-4EF3-B5DC-3496EDD700B4}" name="TIPO"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{479B4325-95A8-436B-9967-1B44233F4611}" name="Tabla2" displayName="Tabla2" ref="A1:E2" totalsRowShown="0">
+  <autoFilter ref="A1:E2" xr:uid="{A427A06F-8496-4A9C-8D00-06AEB3C59AAA}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B1EEC0A2-F4FE-4A78-B156-5FAF66F4A8B3}" name="COMUNA_ORI"/>
+    <tableColumn id="2" xr3:uid="{2435BA77-2594-4AAE-9F20-EFE4D2BA8272}" name="FREQ"/>
+    <tableColumn id="3" xr3:uid="{B003DA6B-B034-4CB2-86F8-4D63C9AC0F36}" name="COMUNA_ID"/>
+    <tableColumn id="4" xr3:uid="{3F5B03AB-229A-4ED9-8431-021231CEDD9B}" name="COMUNA_STD"/>
+    <tableColumn id="5" xr3:uid="{512501FA-2916-47BF-9AAA-2D2B1BF8D18F}" name="TIPO"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2188,17 +2563,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B98966B-245D-4CE0-A1C2-B9EF6AA0DAD4}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>2069</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F40C04-6EE8-4098-A055-8C490658375E}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>2069</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J61" sqref="J61"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
@@ -2210,46 +2699,47 @@
     <col min="9" max="9" width="23" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="6.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="12.28515625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="2"/>
+    <col min="15" max="15" width="11.42578125" style="2"/>
+    <col min="16" max="16" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="10.85546875" style="15" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+    </row>
+    <row r="2" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B2" s="2">
         <v>489</v>
       </c>
@@ -2273,20 +2763,20 @@
       <c r="J2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2313,18 +2803,17 @@
       <c r="J3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="P3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="9">
+      <c r="Q3" s="15">
         <v>43733</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="11">
+      <c r="S3" s="15">
         <v>43733</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2351,18 +2840,17 @@
       <c r="J4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="P4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="9">
+      <c r="Q4" s="15">
         <v>23857</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="11">
+      <c r="S4" s="15">
         <v>23857</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2389,18 +2877,17 @@
       <c r="J5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="P5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="9">
+      <c r="Q5" s="15">
         <v>21214</v>
       </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="11">
+      <c r="S5" s="15">
         <v>21214</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2427,18 +2914,17 @@
       <c r="J6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="P6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="9">
+      <c r="Q6" s="15">
         <v>17152</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="11">
+      <c r="S6" s="15">
         <v>17152</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2465,18 +2951,17 @@
       <c r="J7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="P7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="9">
+      <c r="Q7" s="15">
         <v>15222</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="11">
+      <c r="S7" s="15">
         <v>15222</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2503,18 +2988,17 @@
       <c r="J8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="P8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="9">
+      <c r="Q8" s="15">
         <v>13940</v>
       </c>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="11">
+      <c r="S8" s="15">
         <v>13940</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2541,18 +3025,17 @@
       <c r="J9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="P9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="9">
+      <c r="Q9" s="15">
         <v>13910</v>
       </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="11">
+      <c r="S9" s="15">
         <v>13910</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2579,18 +3062,17 @@
       <c r="J10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="P10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="9">
+      <c r="Q10" s="15">
         <v>12433</v>
       </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="11">
+      <c r="S10" s="15">
         <v>12433</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2617,18 +3099,17 @@
       <c r="J11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="P11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="9">
+      <c r="Q11" s="15">
         <v>7793</v>
       </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="11">
+      <c r="S11" s="15">
         <v>7793</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2655,18 +3136,17 @@
       <c r="J12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="P12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="9">
+      <c r="Q12" s="15">
         <v>6894</v>
       </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="11">
+      <c r="S12" s="15">
         <v>6894</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2693,18 +3173,17 @@
       <c r="J13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="P13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="9">
+      <c r="Q13" s="15">
         <v>6409</v>
       </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="11">
+      <c r="S13" s="15">
         <v>6409</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2731,18 +3210,17 @@
       <c r="J14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O14" s="16" t="s">
+      <c r="P14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P14" s="9">
+      <c r="Q14" s="15">
         <v>5880</v>
       </c>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="11">
+      <c r="S14" s="15">
         <v>5880</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2769,18 +3247,17 @@
       <c r="J15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O15" s="16" t="s">
+      <c r="P15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="9">
+      <c r="Q15" s="15">
         <v>5490</v>
       </c>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="11">
+      <c r="S15" s="15">
         <v>5490</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2807,18 +3284,17 @@
       <c r="J16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="P16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="9">
+      <c r="Q16" s="15">
         <v>3801</v>
       </c>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="11">
+      <c r="S16" s="15">
         <v>3801</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2845,18 +3321,17 @@
       <c r="J17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O17" s="16" t="s">
+      <c r="P17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="9">
+      <c r="Q17" s="15">
         <v>3026</v>
       </c>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="11">
+      <c r="S17" s="15">
         <v>3026</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2883,18 +3358,17 @@
       <c r="J18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O18" s="16" t="s">
+      <c r="P18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P18" s="9">
+      <c r="Q18" s="15">
         <v>2827</v>
       </c>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="11">
+      <c r="S18" s="15">
         <v>2827</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2921,18 +3395,18 @@
       <c r="J19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O19" s="17" t="s">
+      <c r="P19" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="P19" s="10">
+      <c r="Q19" s="16">
         <v>662</v>
       </c>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="12">
+      <c r="R19" s="16"/>
+      <c r="S19" s="16">
         <v>662</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2959,18 +3433,17 @@
       <c r="J20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O20" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9">
-        <v>2069</v>
-      </c>
-      <c r="R20" s="11">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P20" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="R20" s="15">
+        <v>762</v>
+      </c>
+      <c r="S20" s="15">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2997,18 +3470,17 @@
       <c r="J21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O21" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9">
-        <v>762</v>
-      </c>
-      <c r="R21" s="11">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21" s="15">
+        <v>457</v>
+      </c>
+      <c r="S21" s="15">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -3035,18 +3507,17 @@
       <c r="J22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9">
-        <v>457</v>
-      </c>
-      <c r="R22" s="11">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P22" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="R22" s="15">
+        <v>11</v>
+      </c>
+      <c r="S22" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -3073,18 +3544,17 @@
       <c r="J23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O23" s="16" t="s">
+      <c r="P23" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9">
+      <c r="R23" s="15">
         <v>1884</v>
       </c>
-      <c r="R23" s="11">
+      <c r="S23" s="15">
         <v>1884</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3102,18 +3572,17 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O24" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9">
-        <v>11</v>
-      </c>
-      <c r="R24" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P24" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="R24" s="15">
+        <v>2069</v>
+      </c>
+      <c r="S24" s="15">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -3137,20 +3606,20 @@
       <c r="I25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="P25" s="9">
+      <c r="Q25" s="15">
         <v>204243</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="R25" s="15">
         <v>5183</v>
       </c>
-      <c r="R25" s="11">
+      <c r="S25" s="15">
         <v>209426</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -3168,10 +3637,8 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O26"/>
-      <c r="P26"/>
-    </row>
-    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -3189,10 +3656,8 @@
         <f t="shared" si="1"/>
         <v>Corregimiento</v>
       </c>
-      <c r="O27"/>
-      <c r="P27"/>
-    </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3210,10 +3675,8 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O28"/>
-      <c r="P28"/>
-    </row>
-    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -3231,10 +3694,8 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O29"/>
-      <c r="P29"/>
-    </row>
-    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -3252,10 +3713,8 @@
         <f t="shared" si="1"/>
         <v>Corregimiento</v>
       </c>
-      <c r="O30"/>
-      <c r="P30"/>
-    </row>
-    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -3273,10 +3732,8 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O31"/>
-      <c r="P31"/>
-    </row>
-    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -3294,10 +3751,8 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O32"/>
-      <c r="P32"/>
-    </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -3315,10 +3770,8 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O33"/>
-      <c r="P33"/>
-    </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -3336,10 +3789,8 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O34"/>
-      <c r="P34"/>
-    </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -3357,10 +3808,8 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O35"/>
-      <c r="P35"/>
-    </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -3378,10 +3827,8 @@
         <f t="shared" si="1"/>
         <v>Corregimiento</v>
       </c>
-      <c r="O36"/>
-      <c r="P36"/>
-    </row>
-    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3399,10 +3846,8 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O37"/>
-      <c r="P37"/>
-    </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -3420,10 +3865,8 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O38"/>
-      <c r="P38"/>
-    </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -3441,10 +3884,8 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O39"/>
-      <c r="P39"/>
-    </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -3462,10 +3903,8 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O40"/>
-      <c r="P40"/>
-    </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -3483,10 +3922,8 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O41"/>
-      <c r="P41"/>
-    </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -3504,10 +3941,8 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O42"/>
-      <c r="P42"/>
-    </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -3525,10 +3960,8 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O43"/>
-      <c r="P43"/>
-    </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -3546,10 +3979,8 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O44"/>
-      <c r="P44"/>
-    </row>
-    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -3567,10 +3998,8 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O45"/>
-      <c r="P45"/>
-    </row>
-    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -3588,10 +4017,8 @@
         <f t="shared" si="1"/>
         <v>Comuna</v>
       </c>
-      <c r="O46"/>
-      <c r="P46"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -3610,7 +4037,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -3629,7 +4056,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -3648,7 +4075,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -3667,7 +4094,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -3686,7 +4113,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -3705,7 +4132,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -3724,7 +4151,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -3743,7 +4170,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -3762,7 +4189,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -3781,7 +4208,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -3800,7 +4227,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -3819,7 +4246,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -3838,7 +4265,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -3857,7 +4284,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -3876,7 +4303,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -3895,7 +4322,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -3914,7 +4341,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -3933,7 +4360,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -3952,7 +4379,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -3971,7 +4398,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -3990,7 +4417,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -4009,7 +4436,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -4028,7 +4455,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -4047,7 +4474,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -4066,7 +4493,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -4085,7 +4512,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -4104,7 +4531,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,7 +4550,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -4142,7 +4569,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -4161,7 +4588,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -4180,7 +4607,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -4199,7 +4626,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -4218,7 +4645,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -4237,7 +4664,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -4256,7 +4683,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -4275,7 +4702,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -4294,7 +4721,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -4313,7 +4740,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -4332,7 +4759,7 @@
         <v>Comuna</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -4352,6 +4779,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E86" xr:uid="{D62F907E-9625-4B32-8BC9-EBF542F67D9C}"/>
   <hyperlinks>
     <hyperlink ref="I25" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
